--- a/Excel_Workbooks/WeatherWorkbook-Datasets-FreezeAlerts.xlsx
+++ b/Excel_Workbooks/WeatherWorkbook-Datasets-FreezeAlerts.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7E019F1-555D-4700-9178-E42E47889EB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{582FC43C-E0A2-4715-926A-8E2AB99505DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1335" yWindow="585" windowWidth="26400" windowHeight="15330" tabRatio="919" xr2:uid="{0EF8F789-53D4-4A7F-A753-9374BA5ED17F}"/>
   </bookViews>
@@ -78,53 +78,6 @@
   </si>
   <si>
     <t>feelslike</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">This version of Weather Workbook was designed to retrieve bulk and scheduled datasets from the Visual Crossing Query Builder's Dataset repository.  Users who have signed up for valid Visual Crossing accounts can use the Query Builder to create a weather dataset that meets their needs.   This dataset can be scheduled to update daily or may be a one-time creation.   In the MyDatasets section of Query Builder users should copy the link to the dataset, </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>making certain not to copy the link to the zipped version</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, and paste that URL in the highlighted section below.   The URL below will be used by the "From Web" function enabled by PowerQuery to retrieve the data, format the column types and update the table of data found in the Sheet named '</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wx DATA DOWNLOAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'.   To update the data simply click 'Refresh All' from Excel's Data Menu.  Users can also refresh on a set schedule, upon opening Excel or by refreshing the table directly.   To get started creating a dataset you can follow the instructions in this post:  https://www.visualcrossing.com/resources/uncategorized/how-to-build-a-weather-dataset-for-download-bulk-import-or-scheduling/</t>
-    </r>
   </si>
   <si>
     <t>Wx DATA DOWNLOAD</t>
@@ -443,6 +396,53 @@
   </si>
   <si>
     <t>https://raw.githubusercontent.com/visualcrossing/WeatherApi/master/Excel_Workbooks/SampleFreezeData.csv</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This version of Weather Workbook was designed to retrieve bulk and scheduled datasets from the Visual Crossing Query Builder's Dataset repository.  Users who have signed up for valid Visual Crossing accounts can use the Query Builder to create a weather dataset that meets their needs.   This dataset can be scheduled to update daily or may be a one-time creation.   In the MyDatasets section of Query Builder users should copy the link to the dataset, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>making certain not to copy the link to the zipped version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, and paste that URL in the highlighted section below.   The URL below will be used by the "From Web" function enabled by PowerQuery to retrieve the data, format the column types and update the table of data found in the Sheet named '</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wx DATA DOWNLOAD</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'.   To update the data simply click 'Refresh All' from Excel's Data Menu.  Users can also refresh on a set schedule, upon opening Excel or by refreshing the table directly.   To get started creating a dataset you can follow the instructions in this post:  https://www.visualcrossing.com/resources/blog/prepare-your-business-for-upcoming-freezing-temperatures/</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -25330,8 +25330,8 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="B1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8:D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25380,7 +25380,7 @@
     </row>
     <row r="7" spans="2:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B7" s="29" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="30"/>
       <c r="D7" s="31"/>
@@ -25388,7 +25388,7 @@
     </row>
     <row r="8" spans="2:5" ht="141.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="39" t="s">
-        <v>4</v>
+        <v>110</v>
       </c>
       <c r="C8" s="40"/>
       <c r="D8" s="41"/>
@@ -25396,7 +25396,7 @@
     </row>
     <row r="9" spans="2:5" ht="122.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="39" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="40"/>
       <c r="D9" s="41"/>
@@ -25410,7 +25410,7 @@
     </row>
     <row r="11" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="26" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C11" s="27"/>
       <c r="D11" s="28"/>
@@ -25422,10 +25422,10 @@
     </row>
     <row r="13" spans="2:5" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="15" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D13" s="23"/>
     </row>
@@ -25441,7 +25441,7 @@
     </row>
     <row r="16" spans="2:5" ht="54" thickTop="1" thickBot="1" x14ac:dyDescent="0.75">
       <c r="B16" s="15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C16" s="21">
         <v>25</v>
@@ -25557,7 +25557,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -25588,7 +25588,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1">
         <v>44.5</v>
@@ -25617,7 +25617,7 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>19.2</v>
@@ -25646,7 +25646,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>23</v>
@@ -25675,7 +25675,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>32.1</v>
@@ -25704,7 +25704,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>28.4</v>
@@ -25733,7 +25733,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>8.3000000000000007</v>
@@ -25762,7 +25762,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>18.7</v>
@@ -25791,7 +25791,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>55.2</v>
@@ -25820,7 +25820,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>10.5</v>
@@ -25849,7 +25849,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>31.7</v>
@@ -25878,7 +25878,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="1">
         <v>26.3</v>
@@ -25907,7 +25907,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="19" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>15</v>
@@ -25936,7 +25936,7 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="1">
         <v>42.2</v>
@@ -25965,7 +25965,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B16" s="1">
         <v>11.9</v>
@@ -25994,7 +25994,7 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="19" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1">
         <v>11.8</v>
@@ -26023,7 +26023,7 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="19" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1">
         <v>11</v>
@@ -26052,7 +26052,7 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B19" s="1">
         <v>17.600000000000001</v>
@@ -26081,7 +26081,7 @@
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="1">
         <v>49.9</v>
@@ -26110,7 +26110,7 @@
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B21" s="1">
         <v>35.700000000000003</v>
@@ -26139,7 +26139,7 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B22" s="1">
         <v>41</v>
@@ -26168,7 +26168,7 @@
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B23" s="1">
         <v>20.100000000000001</v>
@@ -26197,7 +26197,7 @@
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B24" s="1">
         <v>5</v>
@@ -26226,7 +26226,7 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B25" s="1">
         <v>40.799999999999997</v>
@@ -26255,7 +26255,7 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1">
         <v>6.2</v>
@@ -26284,7 +26284,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1">
         <v>30.4</v>
@@ -26313,7 +26313,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B28" s="1">
         <v>32.6</v>
@@ -26342,7 +26342,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B29" s="1">
         <v>21.5</v>
@@ -26371,7 +26371,7 @@
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B30" s="1">
         <v>42.2</v>
@@ -26400,7 +26400,7 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B31" s="1">
         <v>8.1</v>
@@ -26429,7 +26429,7 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B32" s="1">
         <v>17.8</v>
@@ -26458,7 +26458,7 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="1">
         <v>13.6</v>
@@ -26487,7 +26487,7 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B34" s="1">
         <v>8.3000000000000007</v>
@@ -26516,7 +26516,7 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B35" s="1">
         <v>18.7</v>
@@ -26545,7 +26545,7 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B36" s="1">
         <v>14.8</v>
@@ -26574,7 +26574,7 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="19" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B37" s="1">
         <v>13.8</v>
@@ -26603,7 +26603,7 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B38" s="1">
         <v>43.8</v>
@@ -26632,7 +26632,7 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="19" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1">
         <v>8</v>
@@ -26661,7 +26661,7 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B40" s="1">
         <v>52.1</v>
@@ -26690,7 +26690,7 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1">
         <v>10.8</v>
@@ -26719,7 +26719,7 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1">
         <v>31.5</v>
@@ -26748,7 +26748,7 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B43" s="1">
         <v>29.9</v>
@@ -26777,7 +26777,7 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B44" s="1">
         <v>45.8</v>
@@ -26806,7 +26806,7 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B45" s="1">
         <v>25.5</v>
@@ -26835,7 +26835,7 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B46" s="1">
         <v>26.5</v>
@@ -26864,7 +26864,7 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B47" s="1">
         <v>47.9</v>
@@ -26893,7 +26893,7 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B48" s="1">
         <v>11.6</v>
@@ -26922,7 +26922,7 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="19" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B49" s="1">
         <v>23.1</v>
@@ -26951,7 +26951,7 @@
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B50" s="1">
         <v>38</v>
@@ -26980,7 +26980,7 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="19" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B51" s="1">
         <v>10.5</v>
@@ -27009,7 +27009,7 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="19" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1">
         <v>41.6</v>
@@ -27038,7 +27038,7 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B53" s="1">
         <v>14.3</v>
@@ -27067,7 +27067,7 @@
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B54" s="1">
         <v>42.5</v>
@@ -27096,7 +27096,7 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="19" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B55" s="1">
         <v>9.8000000000000007</v>
@@ -27125,7 +27125,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B56" s="1">
         <v>34.4</v>
@@ -27154,7 +27154,7 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="19" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B57" s="1">
         <v>16.100000000000001</v>
@@ -27183,7 +27183,7 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="19" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B58" s="1">
         <v>34.700000000000003</v>
@@ -27212,7 +27212,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="19" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B59" s="1">
         <v>10</v>
@@ -27241,7 +27241,7 @@
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="19" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1">
         <v>46.8</v>
@@ -27270,7 +27270,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B61" s="1">
         <v>7.1</v>
@@ -27299,7 +27299,7 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B62" s="1">
         <v>16.100000000000001</v>
@@ -27328,7 +27328,7 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B63" s="1">
         <v>17.2</v>
@@ -27357,7 +27357,7 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B64" s="1">
         <v>11.9</v>
@@ -27386,7 +27386,7 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B65" s="1">
         <v>46.8</v>
@@ -27415,7 +27415,7 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="1">
         <v>47.4</v>
@@ -27444,7 +27444,7 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B67" s="1">
         <v>31.5</v>
@@ -27473,7 +27473,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B68" s="1">
         <v>18.8</v>
@@ -27502,7 +27502,7 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B69" s="1">
         <v>48.9</v>
@@ -27531,7 +27531,7 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="19" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B70" s="1">
         <v>46.2</v>
@@ -27560,7 +27560,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="19" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B71" s="1">
         <v>-0.3</v>
@@ -27589,7 +27589,7 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B72" s="1">
         <v>39.799999999999997</v>
@@ -27618,7 +27618,7 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="19" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B73" s="1">
         <v>40.4</v>
@@ -27647,7 +27647,7 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B74" s="1">
         <v>19.5</v>
@@ -27676,7 +27676,7 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="19" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B75" s="1">
         <v>37</v>
@@ -27705,7 +27705,7 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="19" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B76" s="1">
         <v>10.4</v>
@@ -27734,7 +27734,7 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="19" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B77" s="1">
         <v>47</v>
@@ -27763,7 +27763,7 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="19" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B78" s="1">
         <v>17.100000000000001</v>
@@ -27792,7 +27792,7 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="19" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B79" s="1">
         <v>29.1</v>
@@ -27821,7 +27821,7 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B80" s="1">
         <v>33</v>
@@ -27850,7 +27850,7 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B81" s="1">
         <v>18.8</v>
@@ -27879,7 +27879,7 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="19" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B82" s="1">
         <v>32.9</v>
@@ -27908,7 +27908,7 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="19" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B83" s="1">
         <v>43.5</v>
@@ -27937,7 +27937,7 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="19" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B84" s="1">
         <v>17.100000000000001</v>
@@ -27966,7 +27966,7 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B85" s="1">
         <v>20.2</v>
@@ -27995,7 +27995,7 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="19" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B86" s="1">
         <v>33.6</v>
@@ -28024,7 +28024,7 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B87" s="1">
         <v>31.9</v>
@@ -28053,7 +28053,7 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="19" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B88" s="1">
         <v>41.1</v>
@@ -28082,7 +28082,7 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="19" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B89" s="1">
         <v>6.5</v>
@@ -28111,7 +28111,7 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="19" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B90" s="1">
         <v>46</v>
@@ -28140,7 +28140,7 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B91" s="1">
         <v>17</v>
@@ -28169,7 +28169,7 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="19" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B92" s="1">
         <v>7.7</v>
@@ -28198,7 +28198,7 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="19" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B93" s="1">
         <v>34.1</v>
@@ -28227,7 +28227,7 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="19" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B94" s="1">
         <v>41.6</v>
@@ -28256,7 +28256,7 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B95" s="1">
         <v>48.3</v>
@@ -28285,7 +28285,7 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B96" s="1">
         <v>48.1</v>
@@ -28314,7 +28314,7 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B97" s="1">
         <v>17.2</v>
@@ -28510,19 +28510,19 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>9</v>
-      </c>
-      <c r="D1" t="s">
-        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
         <v>11</v>
-      </c>
-      <c r="G1" t="s">
-        <v>12</v>
       </c>
       <c r="H1" t="s">
         <v>3</v>
@@ -28530,7 +28530,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B2" s="10">
         <v>44607</v>
@@ -28556,7 +28556,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B3" s="10">
         <v>44608</v>
@@ -28582,7 +28582,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4" s="10">
         <v>44609</v>
@@ -28608,7 +28608,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B5" s="10">
         <v>44610</v>
@@ -28634,7 +28634,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B6" s="10">
         <v>44611</v>
@@ -28660,7 +28660,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="10">
         <v>44612</v>
@@ -28686,7 +28686,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B8" s="10">
         <v>44613</v>
@@ -28712,7 +28712,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="10">
         <v>44614</v>
@@ -28738,7 +28738,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="10">
         <v>44607</v>
@@ -28764,7 +28764,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="10">
         <v>44608</v>
@@ -28790,7 +28790,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="10">
         <v>44609</v>
@@ -28816,7 +28816,7 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="10">
         <v>44610</v>
@@ -28842,7 +28842,7 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="10">
         <v>44611</v>
@@ -28868,7 +28868,7 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="10">
         <v>44612</v>
@@ -28894,7 +28894,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="10">
         <v>44613</v>
@@ -28920,7 +28920,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="10">
         <v>44614</v>
@@ -28946,7 +28946,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="10">
         <v>44607</v>
@@ -28972,7 +28972,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19" s="10">
         <v>44608</v>
@@ -28998,7 +28998,7 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="10">
         <v>44609</v>
@@ -29024,7 +29024,7 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" s="10">
         <v>44610</v>
@@ -29050,7 +29050,7 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B22" s="10">
         <v>44611</v>
@@ -29076,7 +29076,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B23" s="10">
         <v>44612</v>
@@ -29102,7 +29102,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B24" s="10">
         <v>44613</v>
@@ -29128,7 +29128,7 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B25" s="10">
         <v>44614</v>
@@ -29154,7 +29154,7 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="10">
         <v>44607</v>
@@ -29180,7 +29180,7 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B27" s="10">
         <v>44608</v>
@@ -29206,7 +29206,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B28" s="10">
         <v>44609</v>
@@ -29232,7 +29232,7 @@
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B29" s="10">
         <v>44610</v>
@@ -29258,7 +29258,7 @@
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="10">
         <v>44611</v>
@@ -29284,7 +29284,7 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="10">
         <v>44612</v>
@@ -29310,7 +29310,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="10">
         <v>44613</v>
@@ -29336,7 +29336,7 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B33" s="10">
         <v>44614</v>
@@ -29362,7 +29362,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="10">
         <v>44607</v>
@@ -29388,7 +29388,7 @@
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B35" s="10">
         <v>44608</v>
@@ -29414,7 +29414,7 @@
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B36" s="10">
         <v>44609</v>
@@ -29440,7 +29440,7 @@
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B37" s="10">
         <v>44610</v>
@@ -29466,7 +29466,7 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B38" s="10">
         <v>44611</v>
@@ -29492,7 +29492,7 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B39" s="10">
         <v>44612</v>
@@ -29518,7 +29518,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B40" s="10">
         <v>44613</v>
@@ -29544,7 +29544,7 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B41" s="10">
         <v>44614</v>
@@ -29570,7 +29570,7 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B42" s="10">
         <v>44607</v>
@@ -29596,7 +29596,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B43" s="10">
         <v>44608</v>
@@ -29622,7 +29622,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B44" s="10">
         <v>44609</v>
@@ -29648,7 +29648,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B45" s="10">
         <v>44610</v>
@@ -29674,7 +29674,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B46" s="10">
         <v>44611</v>
@@ -29700,7 +29700,7 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B47" s="10">
         <v>44612</v>
@@ -29726,7 +29726,7 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B48" s="10">
         <v>44613</v>
@@ -29752,7 +29752,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B49" s="10">
         <v>44614</v>
@@ -29778,7 +29778,7 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B50" s="10">
         <v>44607</v>
@@ -29804,7 +29804,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B51" s="10">
         <v>44608</v>
@@ -29830,7 +29830,7 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B52" s="10">
         <v>44609</v>
@@ -29856,7 +29856,7 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B53" s="10">
         <v>44610</v>
@@ -29882,7 +29882,7 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B54" s="10">
         <v>44611</v>
@@ -29908,7 +29908,7 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B55" s="10">
         <v>44612</v>
@@ -29934,7 +29934,7 @@
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B56" s="10">
         <v>44613</v>
@@ -29960,7 +29960,7 @@
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B57" s="10">
         <v>44614</v>
@@ -29986,7 +29986,7 @@
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B58" s="10">
         <v>44607</v>
@@ -30012,7 +30012,7 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B59" s="10">
         <v>44608</v>
@@ -30038,7 +30038,7 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B60" s="10">
         <v>44609</v>
@@ -30064,7 +30064,7 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B61" s="10">
         <v>44610</v>
@@ -30090,7 +30090,7 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B62" s="10">
         <v>44611</v>
@@ -30116,7 +30116,7 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B63" s="10">
         <v>44612</v>
@@ -30142,7 +30142,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B64" s="10">
         <v>44613</v>
@@ -30168,7 +30168,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B65" s="10">
         <v>44614</v>
@@ -30194,7 +30194,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B66" s="10">
         <v>44607</v>
@@ -30220,7 +30220,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B67" s="10">
         <v>44608</v>
@@ -30246,7 +30246,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B68" s="10">
         <v>44609</v>
@@ -30272,7 +30272,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B69" s="10">
         <v>44610</v>
@@ -30298,7 +30298,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B70" s="10">
         <v>44611</v>
@@ -30324,7 +30324,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B71" s="10">
         <v>44612</v>
@@ -30350,7 +30350,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B72" s="10">
         <v>44613</v>
@@ -30376,7 +30376,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B73" s="10">
         <v>44614</v>
@@ -30402,7 +30402,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B74" s="10">
         <v>44607</v>
@@ -30428,7 +30428,7 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B75" s="10">
         <v>44608</v>
@@ -30454,7 +30454,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B76" s="10">
         <v>44609</v>
@@ -30480,7 +30480,7 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B77" s="10">
         <v>44610</v>
@@ -30506,7 +30506,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B78" s="10">
         <v>44611</v>
@@ -30532,7 +30532,7 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B79" s="10">
         <v>44612</v>
@@ -30558,7 +30558,7 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B80" s="10">
         <v>44613</v>
@@ -30584,7 +30584,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B81" s="10">
         <v>44614</v>
@@ -30610,7 +30610,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B82" s="10">
         <v>44607</v>
@@ -30636,7 +30636,7 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B83" s="10">
         <v>44608</v>
@@ -30662,7 +30662,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B84" s="10">
         <v>44609</v>
@@ -30688,7 +30688,7 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B85" s="10">
         <v>44610</v>
@@ -30714,7 +30714,7 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B86" s="10">
         <v>44611</v>
@@ -30740,7 +30740,7 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B87" s="10">
         <v>44612</v>
@@ -30766,7 +30766,7 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B88" s="10">
         <v>44613</v>
@@ -30792,7 +30792,7 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B89" s="10">
         <v>44614</v>
@@ -30818,7 +30818,7 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B90" s="10">
         <v>44607</v>
@@ -30844,7 +30844,7 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B91" s="10">
         <v>44608</v>
@@ -30870,7 +30870,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B92" s="10">
         <v>44609</v>
@@ -30896,7 +30896,7 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B93" s="10">
         <v>44610</v>
@@ -30922,7 +30922,7 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B94" s="10">
         <v>44611</v>
@@ -30948,7 +30948,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B95" s="10">
         <v>44612</v>
@@ -30974,7 +30974,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B96" s="10">
         <v>44613</v>
@@ -31000,7 +31000,7 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B97" s="10">
         <v>44614</v>
@@ -31026,7 +31026,7 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B98" s="10">
         <v>44607</v>
@@ -31052,7 +31052,7 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B99" s="10">
         <v>44608</v>
@@ -31078,7 +31078,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B100" s="10">
         <v>44609</v>
@@ -31104,7 +31104,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B101" s="10">
         <v>44610</v>
@@ -31130,7 +31130,7 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B102" s="10">
         <v>44611</v>
@@ -31156,7 +31156,7 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B103" s="10">
         <v>44612</v>
@@ -31182,7 +31182,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B104" s="10">
         <v>44613</v>
@@ -31208,7 +31208,7 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B105" s="10">
         <v>44614</v>
@@ -31234,7 +31234,7 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B106" s="10">
         <v>44607</v>
@@ -31260,7 +31260,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B107" s="10">
         <v>44608</v>
@@ -31286,7 +31286,7 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B108" s="10">
         <v>44609</v>
@@ -31312,7 +31312,7 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B109" s="10">
         <v>44610</v>
@@ -31338,7 +31338,7 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B110" s="10">
         <v>44611</v>
@@ -31364,7 +31364,7 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B111" s="10">
         <v>44612</v>
@@ -31390,7 +31390,7 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B112" s="10">
         <v>44613</v>
@@ -31416,7 +31416,7 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B113" s="10">
         <v>44614</v>
@@ -31442,7 +31442,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B114" s="10">
         <v>44607</v>
@@ -31468,7 +31468,7 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B115" s="10">
         <v>44608</v>
@@ -31494,7 +31494,7 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B116" s="10">
         <v>44609</v>
@@ -31520,7 +31520,7 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B117" s="10">
         <v>44610</v>
@@ -31546,7 +31546,7 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B118" s="10">
         <v>44611</v>
@@ -31572,7 +31572,7 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B119" s="10">
         <v>44612</v>
@@ -31598,7 +31598,7 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B120" s="10">
         <v>44613</v>
@@ -31624,7 +31624,7 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B121" s="10">
         <v>44614</v>
@@ -31650,7 +31650,7 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B122" s="10">
         <v>44607</v>
@@ -31676,7 +31676,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B123" s="10">
         <v>44608</v>
@@ -31702,7 +31702,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B124" s="10">
         <v>44609</v>
@@ -31728,7 +31728,7 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B125" s="10">
         <v>44610</v>
@@ -31754,7 +31754,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B126" s="10">
         <v>44611</v>
@@ -31780,7 +31780,7 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B127" s="10">
         <v>44612</v>
@@ -31806,7 +31806,7 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B128" s="10">
         <v>44613</v>
@@ -31832,7 +31832,7 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B129" s="10">
         <v>44614</v>
@@ -31858,7 +31858,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B130" s="10">
         <v>44607</v>
@@ -31884,7 +31884,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B131" s="10">
         <v>44608</v>
@@ -31910,7 +31910,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B132" s="10">
         <v>44609</v>
@@ -31936,7 +31936,7 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B133" s="10">
         <v>44610</v>
@@ -31962,7 +31962,7 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B134" s="10">
         <v>44611</v>
@@ -31988,7 +31988,7 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B135" s="10">
         <v>44612</v>
@@ -32014,7 +32014,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B136" s="10">
         <v>44613</v>
@@ -32040,7 +32040,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B137" s="10">
         <v>44614</v>
@@ -32066,7 +32066,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B138" s="10">
         <v>44607</v>
@@ -32092,7 +32092,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B139" s="10">
         <v>44608</v>
@@ -32118,7 +32118,7 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B140" s="10">
         <v>44609</v>
@@ -32144,7 +32144,7 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B141" s="10">
         <v>44610</v>
@@ -32170,7 +32170,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B142" s="10">
         <v>44611</v>
@@ -32196,7 +32196,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B143" s="10">
         <v>44612</v>
@@ -32222,7 +32222,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B144" s="10">
         <v>44613</v>
@@ -32248,7 +32248,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B145" s="10">
         <v>44614</v>
@@ -32274,7 +32274,7 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B146" s="10">
         <v>44607</v>
@@ -32300,7 +32300,7 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B147" s="10">
         <v>44608</v>
@@ -32326,7 +32326,7 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B148" s="10">
         <v>44609</v>
@@ -32352,7 +32352,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B149" s="10">
         <v>44610</v>
@@ -32378,7 +32378,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B150" s="10">
         <v>44611</v>
@@ -32404,7 +32404,7 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B151" s="10">
         <v>44612</v>
@@ -32430,7 +32430,7 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B152" s="10">
         <v>44613</v>
@@ -32456,7 +32456,7 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B153" s="10">
         <v>44614</v>
@@ -32482,7 +32482,7 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B154" s="10">
         <v>44607</v>
@@ -32508,7 +32508,7 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B155" s="10">
         <v>44608</v>
@@ -32534,7 +32534,7 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B156" s="10">
         <v>44609</v>
@@ -32560,7 +32560,7 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B157" s="10">
         <v>44610</v>
@@ -32586,7 +32586,7 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B158" s="10">
         <v>44611</v>
@@ -32612,7 +32612,7 @@
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B159" s="10">
         <v>44612</v>
@@ -32638,7 +32638,7 @@
     </row>
     <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B160" s="10">
         <v>44613</v>
@@ -32664,7 +32664,7 @@
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B161" s="10">
         <v>44614</v>
@@ -32690,7 +32690,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B162" s="10">
         <v>44607</v>
@@ -32716,7 +32716,7 @@
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B163" s="10">
         <v>44608</v>
@@ -32742,7 +32742,7 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B164" s="10">
         <v>44609</v>
@@ -32768,7 +32768,7 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B165" s="10">
         <v>44610</v>
@@ -32794,7 +32794,7 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B166" s="10">
         <v>44611</v>
@@ -32820,7 +32820,7 @@
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B167" s="10">
         <v>44612</v>
@@ -32846,7 +32846,7 @@
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B168" s="10">
         <v>44613</v>
@@ -32872,7 +32872,7 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B169" s="10">
         <v>44614</v>
@@ -32898,7 +32898,7 @@
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B170" s="10">
         <v>44607</v>
@@ -32924,7 +32924,7 @@
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B171" s="10">
         <v>44608</v>
@@ -32950,7 +32950,7 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B172" s="10">
         <v>44609</v>
@@ -32976,7 +32976,7 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B173" s="10">
         <v>44610</v>
@@ -33002,7 +33002,7 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B174" s="10">
         <v>44611</v>
@@ -33028,7 +33028,7 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B175" s="10">
         <v>44612</v>
@@ -33054,7 +33054,7 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B176" s="10">
         <v>44613</v>
@@ -33080,7 +33080,7 @@
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B177" s="10">
         <v>44614</v>
@@ -33106,7 +33106,7 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B178" s="10">
         <v>44607</v>
@@ -33132,7 +33132,7 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B179" s="10">
         <v>44608</v>
@@ -33158,7 +33158,7 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B180" s="10">
         <v>44609</v>
@@ -33184,7 +33184,7 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B181" s="10">
         <v>44610</v>
@@ -33210,7 +33210,7 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B182" s="10">
         <v>44611</v>
@@ -33236,7 +33236,7 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B183" s="10">
         <v>44612</v>
@@ -33262,7 +33262,7 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B184" s="10">
         <v>44613</v>
@@ -33288,7 +33288,7 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B185" s="10">
         <v>44614</v>
@@ -33314,7 +33314,7 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B186" s="10">
         <v>44607</v>
@@ -33340,7 +33340,7 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B187" s="10">
         <v>44608</v>
@@ -33366,7 +33366,7 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B188" s="10">
         <v>44609</v>
@@ -33392,7 +33392,7 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B189" s="10">
         <v>44610</v>
@@ -33418,7 +33418,7 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B190" s="10">
         <v>44611</v>
@@ -33444,7 +33444,7 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B191" s="10">
         <v>44612</v>
@@ -33470,7 +33470,7 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B192" s="10">
         <v>44613</v>
@@ -33496,7 +33496,7 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B193" s="10">
         <v>44614</v>
@@ -33522,7 +33522,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B194" s="10">
         <v>44607</v>
@@ -33548,7 +33548,7 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B195" s="10">
         <v>44608</v>
@@ -33574,7 +33574,7 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B196" s="10">
         <v>44609</v>
@@ -33600,7 +33600,7 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B197" s="10">
         <v>44610</v>
@@ -33626,7 +33626,7 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B198" s="10">
         <v>44611</v>
@@ -33652,7 +33652,7 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B199" s="10">
         <v>44612</v>
@@ -33678,7 +33678,7 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B200" s="10">
         <v>44613</v>
@@ -33704,7 +33704,7 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B201" s="10">
         <v>44614</v>
@@ -33730,7 +33730,7 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B202" s="10">
         <v>44607</v>
@@ -33756,7 +33756,7 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B203" s="10">
         <v>44608</v>
@@ -33782,7 +33782,7 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B204" s="10">
         <v>44609</v>
@@ -33808,7 +33808,7 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B205" s="10">
         <v>44610</v>
@@ -33834,7 +33834,7 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B206" s="10">
         <v>44611</v>
@@ -33860,7 +33860,7 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B207" s="10">
         <v>44612</v>
@@ -33886,7 +33886,7 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B208" s="10">
         <v>44613</v>
@@ -33912,7 +33912,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B209" s="10">
         <v>44614</v>
@@ -33938,7 +33938,7 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B210" s="10">
         <v>44607</v>
@@ -33964,7 +33964,7 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B211" s="10">
         <v>44608</v>
@@ -33990,7 +33990,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B212" s="10">
         <v>44609</v>
@@ -34016,7 +34016,7 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B213" s="10">
         <v>44610</v>
@@ -34042,7 +34042,7 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B214" s="10">
         <v>44611</v>
@@ -34068,7 +34068,7 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B215" s="10">
         <v>44612</v>
@@ -34094,7 +34094,7 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B216" s="10">
         <v>44613</v>
@@ -34120,7 +34120,7 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B217" s="10">
         <v>44614</v>
@@ -34146,7 +34146,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B218" s="10">
         <v>44607</v>
@@ -34172,7 +34172,7 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B219" s="10">
         <v>44608</v>
@@ -34198,7 +34198,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B220" s="10">
         <v>44609</v>
@@ -34224,7 +34224,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B221" s="10">
         <v>44610</v>
@@ -34250,7 +34250,7 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B222" s="10">
         <v>44611</v>
@@ -34276,7 +34276,7 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B223" s="10">
         <v>44612</v>
@@ -34302,7 +34302,7 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B224" s="10">
         <v>44613</v>
@@ -34328,7 +34328,7 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B225" s="10">
         <v>44614</v>
@@ -34354,7 +34354,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B226" s="10">
         <v>44607</v>
@@ -34380,7 +34380,7 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B227" s="10">
         <v>44608</v>
@@ -34406,7 +34406,7 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B228" s="10">
         <v>44609</v>
@@ -34432,7 +34432,7 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B229" s="10">
         <v>44610</v>
@@ -34458,7 +34458,7 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B230" s="10">
         <v>44611</v>
@@ -34484,7 +34484,7 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B231" s="10">
         <v>44612</v>
@@ -34510,7 +34510,7 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B232" s="10">
         <v>44613</v>
@@ -34536,7 +34536,7 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B233" s="10">
         <v>44614</v>
@@ -34562,7 +34562,7 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B234" s="10">
         <v>44607</v>
@@ -34588,7 +34588,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B235" s="10">
         <v>44608</v>
@@ -34614,7 +34614,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B236" s="10">
         <v>44609</v>
@@ -34640,7 +34640,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B237" s="10">
         <v>44610</v>
@@ -34666,7 +34666,7 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B238" s="10">
         <v>44611</v>
@@ -34692,7 +34692,7 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B239" s="10">
         <v>44612</v>
@@ -34718,7 +34718,7 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B240" s="10">
         <v>44613</v>
@@ -34744,7 +34744,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B241" s="10">
         <v>44614</v>
@@ -34770,7 +34770,7 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B242" s="10">
         <v>44607</v>
@@ -34796,7 +34796,7 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B243" s="10">
         <v>44608</v>
@@ -34822,7 +34822,7 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B244" s="10">
         <v>44609</v>
@@ -34848,7 +34848,7 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B245" s="10">
         <v>44610</v>
@@ -34874,7 +34874,7 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B246" s="10">
         <v>44611</v>
@@ -34900,7 +34900,7 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B247" s="10">
         <v>44612</v>
@@ -34926,7 +34926,7 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B248" s="10">
         <v>44613</v>
@@ -34952,7 +34952,7 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B249" s="10">
         <v>44614</v>
@@ -34978,7 +34978,7 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B250" s="10">
         <v>44607</v>
@@ -35004,7 +35004,7 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B251" s="10">
         <v>44608</v>
@@ -35030,7 +35030,7 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B252" s="10">
         <v>44609</v>
@@ -35056,7 +35056,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B253" s="10">
         <v>44610</v>
@@ -35082,7 +35082,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B254" s="10">
         <v>44611</v>
@@ -35108,7 +35108,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B255" s="10">
         <v>44612</v>
@@ -35134,7 +35134,7 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B256" s="10">
         <v>44613</v>
@@ -35160,7 +35160,7 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B257" s="10">
         <v>44614</v>
@@ -35186,7 +35186,7 @@
     </row>
     <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B258" s="10">
         <v>44607</v>
@@ -35212,7 +35212,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B259" s="10">
         <v>44608</v>
@@ -35238,7 +35238,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B260" s="10">
         <v>44609</v>
@@ -35264,7 +35264,7 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B261" s="10">
         <v>44610</v>
@@ -35290,7 +35290,7 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B262" s="10">
         <v>44611</v>
@@ -35316,7 +35316,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B263" s="10">
         <v>44612</v>
@@ -35342,7 +35342,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B264" s="10">
         <v>44613</v>
@@ -35368,7 +35368,7 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B265" s="10">
         <v>44614</v>
@@ -35394,7 +35394,7 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B266" s="10">
         <v>44607</v>
@@ -35420,7 +35420,7 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B267" s="10">
         <v>44608</v>
@@ -35446,7 +35446,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B268" s="10">
         <v>44609</v>
@@ -35472,7 +35472,7 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B269" s="10">
         <v>44610</v>
@@ -35498,7 +35498,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B270" s="10">
         <v>44611</v>
@@ -35524,7 +35524,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B271" s="10">
         <v>44612</v>
@@ -35550,7 +35550,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B272" s="10">
         <v>44613</v>
@@ -35576,7 +35576,7 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B273" s="10">
         <v>44614</v>
@@ -35602,7 +35602,7 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B274" s="10">
         <v>44607</v>
@@ -35628,7 +35628,7 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B275" s="10">
         <v>44608</v>
@@ -35654,7 +35654,7 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B276" s="10">
         <v>44609</v>
@@ -35680,7 +35680,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B277" s="10">
         <v>44610</v>
@@ -35706,7 +35706,7 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B278" s="10">
         <v>44611</v>
@@ -35732,7 +35732,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B279" s="10">
         <v>44612</v>
@@ -35758,7 +35758,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B280" s="10">
         <v>44613</v>
@@ -35784,7 +35784,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B281" s="10">
         <v>44614</v>
@@ -35810,7 +35810,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B282" s="10">
         <v>44607</v>
@@ -35836,7 +35836,7 @@
     </row>
     <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B283" s="10">
         <v>44608</v>
@@ -35862,7 +35862,7 @@
     </row>
     <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B284" s="10">
         <v>44609</v>
@@ -35888,7 +35888,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B285" s="10">
         <v>44610</v>
@@ -35914,7 +35914,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B286" s="10">
         <v>44611</v>
@@ -35940,7 +35940,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B287" s="10">
         <v>44612</v>
@@ -35966,7 +35966,7 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B288" s="10">
         <v>44613</v>
@@ -35992,7 +35992,7 @@
     </row>
     <row r="289" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B289" s="10">
         <v>44614</v>
@@ -36018,7 +36018,7 @@
     </row>
     <row r="290" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B290" s="10">
         <v>44607</v>
@@ -36044,7 +36044,7 @@
     </row>
     <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B291" s="10">
         <v>44608</v>
@@ -36070,7 +36070,7 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B292" s="10">
         <v>44609</v>
@@ -36096,7 +36096,7 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B293" s="10">
         <v>44610</v>
@@ -36122,7 +36122,7 @@
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A294" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B294" s="10">
         <v>44611</v>
@@ -36148,7 +36148,7 @@
     </row>
     <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B295" s="10">
         <v>44612</v>
@@ -36174,7 +36174,7 @@
     </row>
     <row r="296" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B296" s="10">
         <v>44613</v>
@@ -36200,7 +36200,7 @@
     </row>
     <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B297" s="10">
         <v>44614</v>
@@ -36226,7 +36226,7 @@
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B298" s="10">
         <v>44607</v>
@@ -36252,7 +36252,7 @@
     </row>
     <row r="299" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B299" s="10">
         <v>44608</v>
@@ -36278,7 +36278,7 @@
     </row>
     <row r="300" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B300" s="10">
         <v>44609</v>
@@ -36304,7 +36304,7 @@
     </row>
     <row r="301" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B301" s="10">
         <v>44610</v>
@@ -36330,7 +36330,7 @@
     </row>
     <row r="302" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B302" s="10">
         <v>44611</v>
@@ -36356,7 +36356,7 @@
     </row>
     <row r="303" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B303" s="10">
         <v>44612</v>
@@ -36382,7 +36382,7 @@
     </row>
     <row r="304" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B304" s="10">
         <v>44613</v>
@@ -36408,7 +36408,7 @@
     </row>
     <row r="305" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B305" s="10">
         <v>44614</v>
@@ -36434,7 +36434,7 @@
     </row>
     <row r="306" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B306" s="10">
         <v>44607</v>
@@ -36460,7 +36460,7 @@
     </row>
     <row r="307" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B307" s="10">
         <v>44608</v>
@@ -36486,7 +36486,7 @@
     </row>
     <row r="308" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B308" s="10">
         <v>44609</v>
@@ -36512,7 +36512,7 @@
     </row>
     <row r="309" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B309" s="10">
         <v>44610</v>
@@ -36538,7 +36538,7 @@
     </row>
     <row r="310" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B310" s="10">
         <v>44611</v>
@@ -36564,7 +36564,7 @@
     </row>
     <row r="311" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B311" s="10">
         <v>44612</v>
@@ -36590,7 +36590,7 @@
     </row>
     <row r="312" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B312" s="10">
         <v>44613</v>
@@ -36616,7 +36616,7 @@
     </row>
     <row r="313" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B313" s="10">
         <v>44614</v>
@@ -36642,7 +36642,7 @@
     </row>
     <row r="314" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B314" s="10">
         <v>44607</v>
@@ -36668,7 +36668,7 @@
     </row>
     <row r="315" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B315" s="10">
         <v>44608</v>
@@ -36694,7 +36694,7 @@
     </row>
     <row r="316" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B316" s="10">
         <v>44609</v>
@@ -36720,7 +36720,7 @@
     </row>
     <row r="317" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B317" s="10">
         <v>44610</v>
@@ -36746,7 +36746,7 @@
     </row>
     <row r="318" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B318" s="10">
         <v>44611</v>
@@ -36772,7 +36772,7 @@
     </row>
     <row r="319" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B319" s="10">
         <v>44612</v>
@@ -36798,7 +36798,7 @@
     </row>
     <row r="320" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B320" s="10">
         <v>44613</v>
@@ -36824,7 +36824,7 @@
     </row>
     <row r="321" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B321" s="10">
         <v>44614</v>
@@ -36850,7 +36850,7 @@
     </row>
     <row r="322" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B322" s="10">
         <v>44607</v>
@@ -36876,7 +36876,7 @@
     </row>
     <row r="323" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A323" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B323" s="10">
         <v>44608</v>
@@ -36902,7 +36902,7 @@
     </row>
     <row r="324" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A324" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B324" s="10">
         <v>44609</v>
@@ -36928,7 +36928,7 @@
     </row>
     <row r="325" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B325" s="10">
         <v>44610</v>
@@ -36954,7 +36954,7 @@
     </row>
     <row r="326" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B326" s="10">
         <v>44611</v>
@@ -36980,7 +36980,7 @@
     </row>
     <row r="327" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B327" s="10">
         <v>44612</v>
@@ -37006,7 +37006,7 @@
     </row>
     <row r="328" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B328" s="10">
         <v>44613</v>
@@ -37032,7 +37032,7 @@
     </row>
     <row r="329" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B329" s="10">
         <v>44614</v>
@@ -37058,7 +37058,7 @@
     </row>
     <row r="330" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B330" s="10">
         <v>44607</v>
@@ -37084,7 +37084,7 @@
     </row>
     <row r="331" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B331" s="10">
         <v>44608</v>
@@ -37110,7 +37110,7 @@
     </row>
     <row r="332" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A332" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B332" s="10">
         <v>44609</v>
@@ -37136,7 +37136,7 @@
     </row>
     <row r="333" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A333" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B333" s="10">
         <v>44610</v>
@@ -37162,7 +37162,7 @@
     </row>
     <row r="334" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A334" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B334" s="10">
         <v>44611</v>
@@ -37188,7 +37188,7 @@
     </row>
     <row r="335" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A335" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B335" s="10">
         <v>44612</v>
@@ -37214,7 +37214,7 @@
     </row>
     <row r="336" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A336" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B336" s="10">
         <v>44613</v>
@@ -37240,7 +37240,7 @@
     </row>
     <row r="337" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A337" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B337" s="10">
         <v>44614</v>
@@ -37266,7 +37266,7 @@
     </row>
     <row r="338" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A338" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B338" s="10">
         <v>44607</v>
@@ -37292,7 +37292,7 @@
     </row>
     <row r="339" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A339" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B339" s="10">
         <v>44608</v>
@@ -37318,7 +37318,7 @@
     </row>
     <row r="340" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A340" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B340" s="10">
         <v>44609</v>
@@ -37344,7 +37344,7 @@
     </row>
     <row r="341" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A341" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B341" s="10">
         <v>44610</v>
@@ -37370,7 +37370,7 @@
     </row>
     <row r="342" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A342" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B342" s="10">
         <v>44611</v>
@@ -37396,7 +37396,7 @@
     </row>
     <row r="343" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A343" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B343" s="10">
         <v>44612</v>
@@ -37422,7 +37422,7 @@
     </row>
     <row r="344" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B344" s="10">
         <v>44613</v>
@@ -37448,7 +37448,7 @@
     </row>
     <row r="345" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B345" s="10">
         <v>44614</v>
@@ -37474,7 +37474,7 @@
     </row>
     <row r="346" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B346" s="10">
         <v>44607</v>
@@ -37500,7 +37500,7 @@
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B347" s="10">
         <v>44608</v>
@@ -37526,7 +37526,7 @@
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B348" s="10">
         <v>44609</v>
@@ -37552,7 +37552,7 @@
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B349" s="10">
         <v>44610</v>
@@ -37578,7 +37578,7 @@
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B350" s="10">
         <v>44611</v>
@@ -37604,7 +37604,7 @@
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B351" s="10">
         <v>44612</v>
@@ -37630,7 +37630,7 @@
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B352" s="10">
         <v>44613</v>
@@ -37656,7 +37656,7 @@
     </row>
     <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B353" s="10">
         <v>44614</v>
@@ -37682,7 +37682,7 @@
     </row>
     <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B354" s="10">
         <v>44607</v>
@@ -37708,7 +37708,7 @@
     </row>
     <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B355" s="10">
         <v>44608</v>
@@ -37734,7 +37734,7 @@
     </row>
     <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B356" s="10">
         <v>44609</v>
@@ -37760,7 +37760,7 @@
     </row>
     <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B357" s="10">
         <v>44610</v>
@@ -37786,7 +37786,7 @@
     </row>
     <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B358" s="10">
         <v>44611</v>
@@ -37812,7 +37812,7 @@
     </row>
     <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B359" s="10">
         <v>44612</v>
@@ -37838,7 +37838,7 @@
     </row>
     <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B360" s="10">
         <v>44613</v>
@@ -37864,7 +37864,7 @@
     </row>
     <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B361" s="10">
         <v>44614</v>
@@ -37890,7 +37890,7 @@
     </row>
     <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B362" s="10">
         <v>44607</v>
@@ -37916,7 +37916,7 @@
     </row>
     <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B363" s="10">
         <v>44608</v>
@@ -37942,7 +37942,7 @@
     </row>
     <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B364" s="10">
         <v>44609</v>
@@ -37968,7 +37968,7 @@
     </row>
     <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B365" s="10">
         <v>44610</v>
@@ -37994,7 +37994,7 @@
     </row>
     <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B366" s="10">
         <v>44611</v>
@@ -38020,7 +38020,7 @@
     </row>
     <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B367" s="10">
         <v>44612</v>
@@ -38046,7 +38046,7 @@
     </row>
     <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B368" s="10">
         <v>44613</v>
@@ -38072,7 +38072,7 @@
     </row>
     <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B369" s="10">
         <v>44614</v>
@@ -38098,7 +38098,7 @@
     </row>
     <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B370" s="10">
         <v>44607</v>
@@ -38124,7 +38124,7 @@
     </row>
     <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B371" s="10">
         <v>44608</v>
@@ -38150,7 +38150,7 @@
     </row>
     <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B372" s="10">
         <v>44609</v>
@@ -38176,7 +38176,7 @@
     </row>
     <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B373" s="10">
         <v>44610</v>
@@ -38202,7 +38202,7 @@
     </row>
     <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B374" s="10">
         <v>44611</v>
@@ -38228,7 +38228,7 @@
     </row>
     <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B375" s="10">
         <v>44612</v>
@@ -38254,7 +38254,7 @@
     </row>
     <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B376" s="10">
         <v>44613</v>
@@ -38280,7 +38280,7 @@
     </row>
     <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B377" s="10">
         <v>44614</v>
@@ -38306,7 +38306,7 @@
     </row>
     <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B378" s="10">
         <v>44607</v>
@@ -38332,7 +38332,7 @@
     </row>
     <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B379" s="10">
         <v>44608</v>
@@ -38358,7 +38358,7 @@
     </row>
     <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B380" s="10">
         <v>44609</v>
@@ -38384,7 +38384,7 @@
     </row>
     <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B381" s="10">
         <v>44610</v>
@@ -38410,7 +38410,7 @@
     </row>
     <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B382" s="10">
         <v>44611</v>
@@ -38436,7 +38436,7 @@
     </row>
     <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B383" s="10">
         <v>44612</v>
@@ -38462,7 +38462,7 @@
     </row>
     <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B384" s="10">
         <v>44613</v>
@@ -38488,7 +38488,7 @@
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B385" s="10">
         <v>44614</v>
@@ -38514,7 +38514,7 @@
     </row>
     <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B386" s="10">
         <v>44607</v>
@@ -38540,7 +38540,7 @@
     </row>
     <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B387" s="10">
         <v>44608</v>
@@ -38566,7 +38566,7 @@
     </row>
     <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B388" s="10">
         <v>44609</v>
@@ -38592,7 +38592,7 @@
     </row>
     <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B389" s="10">
         <v>44610</v>
@@ -38618,7 +38618,7 @@
     </row>
     <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B390" s="10">
         <v>44611</v>
@@ -38644,7 +38644,7 @@
     </row>
     <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B391" s="10">
         <v>44612</v>
@@ -38670,7 +38670,7 @@
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B392" s="10">
         <v>44613</v>
@@ -38696,7 +38696,7 @@
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B393" s="10">
         <v>44614</v>
@@ -38722,7 +38722,7 @@
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B394" s="10">
         <v>44607</v>
@@ -38748,7 +38748,7 @@
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B395" s="10">
         <v>44608</v>
@@ -38774,7 +38774,7 @@
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B396" s="10">
         <v>44609</v>
@@ -38800,7 +38800,7 @@
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B397" s="10">
         <v>44610</v>
@@ -38826,7 +38826,7 @@
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B398" s="10">
         <v>44611</v>
@@ -38852,7 +38852,7 @@
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B399" s="10">
         <v>44612</v>
@@ -38878,7 +38878,7 @@
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B400" s="10">
         <v>44613</v>
@@ -38904,7 +38904,7 @@
     </row>
     <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B401" s="10">
         <v>44614</v>
@@ -38930,7 +38930,7 @@
     </row>
     <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B402" s="10">
         <v>44607</v>
@@ -38956,7 +38956,7 @@
     </row>
     <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B403" s="10">
         <v>44608</v>
@@ -38982,7 +38982,7 @@
     </row>
     <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B404" s="10">
         <v>44609</v>
@@ -39008,7 +39008,7 @@
     </row>
     <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B405" s="10">
         <v>44610</v>
@@ -39034,7 +39034,7 @@
     </row>
     <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B406" s="10">
         <v>44611</v>
@@ -39060,7 +39060,7 @@
     </row>
     <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B407" s="10">
         <v>44612</v>
@@ -39086,7 +39086,7 @@
     </row>
     <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B408" s="10">
         <v>44613</v>
@@ -39112,7 +39112,7 @@
     </row>
     <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B409" s="10">
         <v>44614</v>
@@ -39138,7 +39138,7 @@
     </row>
     <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B410" s="10">
         <v>44607</v>
@@ -39164,7 +39164,7 @@
     </row>
     <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B411" s="10">
         <v>44608</v>
@@ -39190,7 +39190,7 @@
     </row>
     <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B412" s="10">
         <v>44609</v>
@@ -39216,7 +39216,7 @@
     </row>
     <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B413" s="10">
         <v>44610</v>
@@ -39242,7 +39242,7 @@
     </row>
     <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B414" s="10">
         <v>44611</v>
@@ -39268,7 +39268,7 @@
     </row>
     <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B415" s="10">
         <v>44612</v>
@@ -39294,7 +39294,7 @@
     </row>
     <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B416" s="10">
         <v>44613</v>
@@ -39320,7 +39320,7 @@
     </row>
     <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B417" s="10">
         <v>44614</v>
@@ -39346,7 +39346,7 @@
     </row>
     <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B418" s="10">
         <v>44607</v>
@@ -39372,7 +39372,7 @@
     </row>
     <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B419" s="10">
         <v>44608</v>
@@ -39398,7 +39398,7 @@
     </row>
     <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B420" s="10">
         <v>44609</v>
@@ -39424,7 +39424,7 @@
     </row>
     <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B421" s="10">
         <v>44610</v>
@@ -39450,7 +39450,7 @@
     </row>
     <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B422" s="10">
         <v>44611</v>
@@ -39476,7 +39476,7 @@
     </row>
     <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B423" s="10">
         <v>44612</v>
@@ -39502,7 +39502,7 @@
     </row>
     <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B424" s="10">
         <v>44613</v>
@@ -39528,7 +39528,7 @@
     </row>
     <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B425" s="10">
         <v>44614</v>
@@ -39554,7 +39554,7 @@
     </row>
     <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B426" s="10">
         <v>44607</v>
@@ -39580,7 +39580,7 @@
     </row>
     <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B427" s="10">
         <v>44608</v>
@@ -39606,7 +39606,7 @@
     </row>
     <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B428" s="10">
         <v>44609</v>
@@ -39632,7 +39632,7 @@
     </row>
     <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B429" s="10">
         <v>44610</v>
@@ -39658,7 +39658,7 @@
     </row>
     <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B430" s="10">
         <v>44611</v>
@@ -39684,7 +39684,7 @@
     </row>
     <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B431" s="10">
         <v>44612</v>
@@ -39710,7 +39710,7 @@
     </row>
     <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B432" s="10">
         <v>44613</v>
@@ -39736,7 +39736,7 @@
     </row>
     <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B433" s="10">
         <v>44614</v>
@@ -39762,7 +39762,7 @@
     </row>
     <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B434" s="10">
         <v>44607</v>
@@ -39788,7 +39788,7 @@
     </row>
     <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B435" s="10">
         <v>44608</v>
@@ -39814,7 +39814,7 @@
     </row>
     <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B436" s="10">
         <v>44609</v>
@@ -39840,7 +39840,7 @@
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B437" s="10">
         <v>44610</v>
@@ -39866,7 +39866,7 @@
     </row>
     <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B438" s="10">
         <v>44611</v>
@@ -39892,7 +39892,7 @@
     </row>
     <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B439" s="10">
         <v>44612</v>
@@ -39918,7 +39918,7 @@
     </row>
     <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B440" s="10">
         <v>44613</v>
@@ -39944,7 +39944,7 @@
     </row>
     <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B441" s="10">
         <v>44614</v>
@@ -39970,7 +39970,7 @@
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B442" s="10">
         <v>44607</v>
@@ -39996,7 +39996,7 @@
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B443" s="10">
         <v>44608</v>
@@ -40022,7 +40022,7 @@
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B444" s="10">
         <v>44609</v>
@@ -40048,7 +40048,7 @@
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B445" s="10">
         <v>44610</v>
@@ -40074,7 +40074,7 @@
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B446" s="10">
         <v>44611</v>
@@ -40100,7 +40100,7 @@
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B447" s="10">
         <v>44612</v>
@@ -40126,7 +40126,7 @@
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B448" s="10">
         <v>44613</v>
@@ -40152,7 +40152,7 @@
     </row>
     <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B449" s="10">
         <v>44614</v>
@@ -40178,7 +40178,7 @@
     </row>
     <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B450" s="10">
         <v>44607</v>
@@ -40204,7 +40204,7 @@
     </row>
     <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B451" s="10">
         <v>44608</v>
@@ -40230,7 +40230,7 @@
     </row>
     <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B452" s="10">
         <v>44609</v>
@@ -40256,7 +40256,7 @@
     </row>
     <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B453" s="10">
         <v>44610</v>
@@ -40282,7 +40282,7 @@
     </row>
     <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B454" s="10">
         <v>44611</v>
@@ -40308,7 +40308,7 @@
     </row>
     <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B455" s="10">
         <v>44612</v>
@@ -40334,7 +40334,7 @@
     </row>
     <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B456" s="10">
         <v>44613</v>
@@ -40360,7 +40360,7 @@
     </row>
     <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B457" s="10">
         <v>44614</v>
@@ -40386,7 +40386,7 @@
     </row>
     <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B458" s="10">
         <v>44607</v>
@@ -40412,7 +40412,7 @@
     </row>
     <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B459" s="10">
         <v>44608</v>
@@ -40438,7 +40438,7 @@
     </row>
     <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B460" s="10">
         <v>44609</v>
@@ -40464,7 +40464,7 @@
     </row>
     <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B461" s="10">
         <v>44610</v>
@@ -40490,7 +40490,7 @@
     </row>
     <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B462" s="10">
         <v>44611</v>
@@ -40516,7 +40516,7 @@
     </row>
     <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B463" s="10">
         <v>44612</v>
@@ -40542,7 +40542,7 @@
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B464" s="10">
         <v>44613</v>
@@ -40568,7 +40568,7 @@
     </row>
     <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B465" s="10">
         <v>44614</v>
@@ -40594,7 +40594,7 @@
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B466" s="10">
         <v>44607</v>
@@ -40620,7 +40620,7 @@
     </row>
     <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B467" s="10">
         <v>44608</v>
@@ -40646,7 +40646,7 @@
     </row>
     <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B468" s="10">
         <v>44609</v>
@@ -40672,7 +40672,7 @@
     </row>
     <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B469" s="10">
         <v>44610</v>
@@ -40698,7 +40698,7 @@
     </row>
     <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B470" s="10">
         <v>44611</v>
@@ -40724,7 +40724,7 @@
     </row>
     <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B471" s="10">
         <v>44612</v>
@@ -40750,7 +40750,7 @@
     </row>
     <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B472" s="10">
         <v>44613</v>
@@ -40776,7 +40776,7 @@
     </row>
     <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B473" s="10">
         <v>44614</v>
@@ -40802,7 +40802,7 @@
     </row>
     <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B474" s="10">
         <v>44607</v>
@@ -40828,7 +40828,7 @@
     </row>
     <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B475" s="10">
         <v>44608</v>
@@ -40854,7 +40854,7 @@
     </row>
     <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B476" s="10">
         <v>44609</v>
@@ -40880,7 +40880,7 @@
     </row>
     <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B477" s="10">
         <v>44610</v>
@@ -40906,7 +40906,7 @@
     </row>
     <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B478" s="10">
         <v>44611</v>
@@ -40932,7 +40932,7 @@
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B479" s="10">
         <v>44612</v>
@@ -40958,7 +40958,7 @@
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B480" s="10">
         <v>44613</v>
@@ -40984,7 +40984,7 @@
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B481" s="10">
         <v>44614</v>
@@ -41010,7 +41010,7 @@
     </row>
     <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B482" s="10">
         <v>44607</v>
@@ -41036,7 +41036,7 @@
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B483" s="10">
         <v>44608</v>
@@ -41062,7 +41062,7 @@
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B484" s="10">
         <v>44609</v>
@@ -41088,7 +41088,7 @@
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B485" s="10">
         <v>44610</v>
@@ -41114,7 +41114,7 @@
     </row>
     <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B486" s="10">
         <v>44611</v>
@@ -41140,7 +41140,7 @@
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B487" s="10">
         <v>44612</v>
@@ -41166,7 +41166,7 @@
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B488" s="10">
         <v>44613</v>
@@ -41192,7 +41192,7 @@
     </row>
     <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B489" s="10">
         <v>44614</v>
@@ -41218,7 +41218,7 @@
     </row>
     <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B490" s="10">
         <v>44607</v>
@@ -41244,7 +41244,7 @@
     </row>
     <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B491" s="10">
         <v>44608</v>
@@ -41270,7 +41270,7 @@
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B492" s="10">
         <v>44609</v>
@@ -41296,7 +41296,7 @@
     </row>
     <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B493" s="10">
         <v>44610</v>
@@ -41322,7 +41322,7 @@
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B494" s="10">
         <v>44611</v>
@@ -41348,7 +41348,7 @@
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B495" s="10">
         <v>44612</v>
@@ -41374,7 +41374,7 @@
     </row>
     <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B496" s="10">
         <v>44613</v>
@@ -41400,7 +41400,7 @@
     </row>
     <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B497" s="10">
         <v>44614</v>
@@ -41426,7 +41426,7 @@
     </row>
     <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B498" s="10">
         <v>44607</v>
@@ -41452,7 +41452,7 @@
     </row>
     <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B499" s="10">
         <v>44608</v>
@@ -41478,7 +41478,7 @@
     </row>
     <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B500" s="10">
         <v>44609</v>
@@ -41504,7 +41504,7 @@
     </row>
     <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B501" s="10">
         <v>44610</v>
@@ -41530,7 +41530,7 @@
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B502" s="10">
         <v>44611</v>
@@ -41556,7 +41556,7 @@
     </row>
     <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B503" s="10">
         <v>44612</v>
@@ -41582,7 +41582,7 @@
     </row>
     <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B504" s="10">
         <v>44613</v>
@@ -41608,7 +41608,7 @@
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B505" s="10">
         <v>44614</v>
@@ -41634,7 +41634,7 @@
     </row>
     <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B506" s="10">
         <v>44607</v>
@@ -41660,7 +41660,7 @@
     </row>
     <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B507" s="10">
         <v>44608</v>
@@ -41686,7 +41686,7 @@
     </row>
     <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B508" s="10">
         <v>44609</v>
@@ -41712,7 +41712,7 @@
     </row>
     <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B509" s="10">
         <v>44610</v>
@@ -41738,7 +41738,7 @@
     </row>
     <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B510" s="10">
         <v>44611</v>
@@ -41764,7 +41764,7 @@
     </row>
     <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B511" s="10">
         <v>44612</v>
@@ -41790,7 +41790,7 @@
     </row>
     <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B512" s="10">
         <v>44613</v>
@@ -41816,7 +41816,7 @@
     </row>
     <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B513" s="10">
         <v>44614</v>
@@ -41842,7 +41842,7 @@
     </row>
     <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B514" s="10">
         <v>44607</v>
@@ -41868,7 +41868,7 @@
     </row>
     <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B515" s="10">
         <v>44608</v>
@@ -41894,7 +41894,7 @@
     </row>
     <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B516" s="10">
         <v>44609</v>
@@ -41920,7 +41920,7 @@
     </row>
     <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B517" s="10">
         <v>44610</v>
@@ -41946,7 +41946,7 @@
     </row>
     <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B518" s="10">
         <v>44611</v>
@@ -41972,7 +41972,7 @@
     </row>
     <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B519" s="10">
         <v>44612</v>
@@ -41998,7 +41998,7 @@
     </row>
     <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B520" s="10">
         <v>44613</v>
@@ -42024,7 +42024,7 @@
     </row>
     <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B521" s="10">
         <v>44614</v>
@@ -42050,7 +42050,7 @@
     </row>
     <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B522" s="10">
         <v>44607</v>
@@ -42076,7 +42076,7 @@
     </row>
     <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B523" s="10">
         <v>44608</v>
@@ -42102,7 +42102,7 @@
     </row>
     <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B524" s="10">
         <v>44609</v>
@@ -42128,7 +42128,7 @@
     </row>
     <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B525" s="10">
         <v>44610</v>
@@ -42154,7 +42154,7 @@
     </row>
     <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B526" s="10">
         <v>44611</v>
@@ -42180,7 +42180,7 @@
     </row>
     <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B527" s="10">
         <v>44612</v>
@@ -42206,7 +42206,7 @@
     </row>
     <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B528" s="10">
         <v>44613</v>
@@ -42232,7 +42232,7 @@
     </row>
     <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B529" s="10">
         <v>44614</v>
@@ -42258,7 +42258,7 @@
     </row>
     <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B530" s="10">
         <v>44607</v>
@@ -42284,7 +42284,7 @@
     </row>
     <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B531" s="10">
         <v>44608</v>
@@ -42310,7 +42310,7 @@
     </row>
     <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B532" s="10">
         <v>44609</v>
@@ -42336,7 +42336,7 @@
     </row>
     <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B533" s="10">
         <v>44610</v>
@@ -42362,7 +42362,7 @@
     </row>
     <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B534" s="10">
         <v>44611</v>
@@ -42388,7 +42388,7 @@
     </row>
     <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B535" s="10">
         <v>44612</v>
@@ -42414,7 +42414,7 @@
     </row>
     <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B536" s="10">
         <v>44613</v>
@@ -42440,7 +42440,7 @@
     </row>
     <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B537" s="10">
         <v>44614</v>
@@ -42466,7 +42466,7 @@
     </row>
     <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B538" s="10">
         <v>44607</v>
@@ -42492,7 +42492,7 @@
     </row>
     <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B539" s="10">
         <v>44608</v>
@@ -42518,7 +42518,7 @@
     </row>
     <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B540" s="10">
         <v>44609</v>
@@ -42544,7 +42544,7 @@
     </row>
     <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B541" s="10">
         <v>44610</v>
@@ -42570,7 +42570,7 @@
     </row>
     <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B542" s="10">
         <v>44611</v>
@@ -42596,7 +42596,7 @@
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B543" s="10">
         <v>44612</v>
@@ -42622,7 +42622,7 @@
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B544" s="10">
         <v>44613</v>
@@ -42648,7 +42648,7 @@
     </row>
     <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B545" s="10">
         <v>44614</v>
@@ -42674,7 +42674,7 @@
     </row>
     <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B546" s="10">
         <v>44607</v>
@@ -42700,7 +42700,7 @@
     </row>
     <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B547" s="10">
         <v>44608</v>
@@ -42726,7 +42726,7 @@
     </row>
     <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B548" s="10">
         <v>44609</v>
@@ -42752,7 +42752,7 @@
     </row>
     <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B549" s="10">
         <v>44610</v>
@@ -42778,7 +42778,7 @@
     </row>
     <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B550" s="10">
         <v>44611</v>
@@ -42804,7 +42804,7 @@
     </row>
     <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B551" s="10">
         <v>44612</v>
@@ -42830,7 +42830,7 @@
     </row>
     <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B552" s="10">
         <v>44613</v>
@@ -42856,7 +42856,7 @@
     </row>
     <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B553" s="10">
         <v>44614</v>
@@ -42882,7 +42882,7 @@
     </row>
     <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B554" s="10">
         <v>44607</v>
@@ -42908,7 +42908,7 @@
     </row>
     <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B555" s="10">
         <v>44608</v>
@@ -42934,7 +42934,7 @@
     </row>
     <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B556" s="10">
         <v>44609</v>
@@ -42960,7 +42960,7 @@
     </row>
     <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B557" s="10">
         <v>44610</v>
@@ -42986,7 +42986,7 @@
     </row>
     <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B558" s="10">
         <v>44611</v>
@@ -43012,7 +43012,7 @@
     </row>
     <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B559" s="10">
         <v>44612</v>
@@ -43038,7 +43038,7 @@
     </row>
     <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B560" s="10">
         <v>44613</v>
@@ -43064,7 +43064,7 @@
     </row>
     <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B561" s="10">
         <v>44614</v>
@@ -43090,7 +43090,7 @@
     </row>
     <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B562" s="10">
         <v>44607</v>
@@ -43116,7 +43116,7 @@
     </row>
     <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B563" s="10">
         <v>44608</v>
@@ -43142,7 +43142,7 @@
     </row>
     <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B564" s="10">
         <v>44609</v>
@@ -43168,7 +43168,7 @@
     </row>
     <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B565" s="10">
         <v>44610</v>
@@ -43194,7 +43194,7 @@
     </row>
     <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B566" s="10">
         <v>44611</v>
@@ -43220,7 +43220,7 @@
     </row>
     <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B567" s="10">
         <v>44612</v>
@@ -43246,7 +43246,7 @@
     </row>
     <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B568" s="10">
         <v>44613</v>
@@ -43272,7 +43272,7 @@
     </row>
     <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B569" s="10">
         <v>44614</v>
@@ -43298,7 +43298,7 @@
     </row>
     <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B570" s="10">
         <v>44607</v>
@@ -43324,7 +43324,7 @@
     </row>
     <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B571" s="10">
         <v>44608</v>
@@ -43350,7 +43350,7 @@
     </row>
     <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B572" s="10">
         <v>44609</v>
@@ -43376,7 +43376,7 @@
     </row>
     <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B573" s="10">
         <v>44610</v>
@@ -43402,7 +43402,7 @@
     </row>
     <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B574" s="10">
         <v>44611</v>
@@ -43428,7 +43428,7 @@
     </row>
     <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B575" s="10">
         <v>44612</v>
@@ -43454,7 +43454,7 @@
     </row>
     <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B576" s="10">
         <v>44613</v>
@@ -43480,7 +43480,7 @@
     </row>
     <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B577" s="10">
         <v>44614</v>
@@ -43506,7 +43506,7 @@
     </row>
     <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B578" s="10">
         <v>44607</v>
@@ -43532,7 +43532,7 @@
     </row>
     <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B579" s="10">
         <v>44608</v>
@@ -43558,7 +43558,7 @@
     </row>
     <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B580" s="10">
         <v>44609</v>
@@ -43584,7 +43584,7 @@
     </row>
     <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B581" s="10">
         <v>44610</v>
@@ -43610,7 +43610,7 @@
     </row>
     <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B582" s="10">
         <v>44611</v>
@@ -43636,7 +43636,7 @@
     </row>
     <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B583" s="10">
         <v>44612</v>
@@ -43662,7 +43662,7 @@
     </row>
     <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B584" s="10">
         <v>44613</v>
@@ -43688,7 +43688,7 @@
     </row>
     <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B585" s="10">
         <v>44614</v>
@@ -43714,7 +43714,7 @@
     </row>
     <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B586" s="10">
         <v>44607</v>
@@ -43740,7 +43740,7 @@
     </row>
     <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B587" s="10">
         <v>44608</v>
@@ -43766,7 +43766,7 @@
     </row>
     <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B588" s="10">
         <v>44609</v>
@@ -43792,7 +43792,7 @@
     </row>
     <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B589" s="10">
         <v>44610</v>
@@ -43818,7 +43818,7 @@
     </row>
     <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B590" s="10">
         <v>44611</v>
@@ -43844,7 +43844,7 @@
     </row>
     <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B591" s="10">
         <v>44612</v>
@@ -43870,7 +43870,7 @@
     </row>
     <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B592" s="10">
         <v>44613</v>
@@ -43896,7 +43896,7 @@
     </row>
     <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B593" s="10">
         <v>44614</v>
@@ -43922,7 +43922,7 @@
     </row>
     <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B594" s="10">
         <v>44607</v>
@@ -43948,7 +43948,7 @@
     </row>
     <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B595" s="10">
         <v>44608</v>
@@ -43974,7 +43974,7 @@
     </row>
     <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B596" s="10">
         <v>44609</v>
@@ -44000,7 +44000,7 @@
     </row>
     <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B597" s="10">
         <v>44610</v>
@@ -44026,7 +44026,7 @@
     </row>
     <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B598" s="10">
         <v>44611</v>
@@ -44052,7 +44052,7 @@
     </row>
     <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B599" s="10">
         <v>44612</v>
@@ -44078,7 +44078,7 @@
     </row>
     <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B600" s="10">
         <v>44613</v>
@@ -44104,7 +44104,7 @@
     </row>
     <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B601" s="10">
         <v>44614</v>
@@ -44130,7 +44130,7 @@
     </row>
     <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B602" s="10">
         <v>44607</v>
@@ -44156,7 +44156,7 @@
     </row>
     <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B603" s="10">
         <v>44608</v>
@@ -44182,7 +44182,7 @@
     </row>
     <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B604" s="10">
         <v>44609</v>
@@ -44208,7 +44208,7 @@
     </row>
     <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B605" s="10">
         <v>44610</v>
@@ -44234,7 +44234,7 @@
     </row>
     <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B606" s="10">
         <v>44611</v>
@@ -44260,7 +44260,7 @@
     </row>
     <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B607" s="10">
         <v>44612</v>
@@ -44286,7 +44286,7 @@
     </row>
     <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B608" s="10">
         <v>44613</v>
@@ -44312,7 +44312,7 @@
     </row>
     <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B609" s="10">
         <v>44614</v>
@@ -44338,7 +44338,7 @@
     </row>
     <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B610" s="10">
         <v>44607</v>
@@ -44364,7 +44364,7 @@
     </row>
     <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B611" s="10">
         <v>44608</v>
@@ -44390,7 +44390,7 @@
     </row>
     <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B612" s="10">
         <v>44609</v>
@@ -44416,7 +44416,7 @@
     </row>
     <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B613" s="10">
         <v>44610</v>
@@ -44442,7 +44442,7 @@
     </row>
     <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B614" s="10">
         <v>44611</v>
@@ -44468,7 +44468,7 @@
     </row>
     <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B615" s="10">
         <v>44612</v>
@@ -44494,7 +44494,7 @@
     </row>
     <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B616" s="10">
         <v>44613</v>
@@ -44520,7 +44520,7 @@
     </row>
     <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B617" s="10">
         <v>44614</v>
@@ -44546,7 +44546,7 @@
     </row>
     <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B618" s="10">
         <v>44607</v>
@@ -44572,7 +44572,7 @@
     </row>
     <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B619" s="10">
         <v>44608</v>
@@ -44598,7 +44598,7 @@
     </row>
     <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B620" s="10">
         <v>44609</v>
@@ -44624,7 +44624,7 @@
     </row>
     <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B621" s="10">
         <v>44610</v>
@@ -44650,7 +44650,7 @@
     </row>
     <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B622" s="10">
         <v>44611</v>
@@ -44676,7 +44676,7 @@
     </row>
     <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B623" s="10">
         <v>44612</v>
@@ -44702,7 +44702,7 @@
     </row>
     <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B624" s="10">
         <v>44613</v>
@@ -44728,7 +44728,7 @@
     </row>
     <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B625" s="10">
         <v>44614</v>
@@ -44754,7 +44754,7 @@
     </row>
     <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B626" s="10">
         <v>44607</v>
@@ -44780,7 +44780,7 @@
     </row>
     <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B627" s="10">
         <v>44608</v>
@@ -44806,7 +44806,7 @@
     </row>
     <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B628" s="10">
         <v>44609</v>
@@ -44832,7 +44832,7 @@
     </row>
     <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B629" s="10">
         <v>44610</v>
@@ -44858,7 +44858,7 @@
     </row>
     <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B630" s="10">
         <v>44611</v>
@@ -44884,7 +44884,7 @@
     </row>
     <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B631" s="10">
         <v>44612</v>
@@ -44910,7 +44910,7 @@
     </row>
     <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B632" s="10">
         <v>44613</v>
@@ -44936,7 +44936,7 @@
     </row>
     <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B633" s="10">
         <v>44614</v>
@@ -44962,7 +44962,7 @@
     </row>
     <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B634" s="10">
         <v>44607</v>
@@ -44988,7 +44988,7 @@
     </row>
     <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B635" s="10">
         <v>44608</v>
@@ -45014,7 +45014,7 @@
     </row>
     <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B636" s="10">
         <v>44609</v>
@@ -45040,7 +45040,7 @@
     </row>
     <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B637" s="10">
         <v>44610</v>
@@ -45066,7 +45066,7 @@
     </row>
     <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B638" s="10">
         <v>44611</v>
@@ -45092,7 +45092,7 @@
     </row>
     <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B639" s="10">
         <v>44612</v>
@@ -45118,7 +45118,7 @@
     </row>
     <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B640" s="10">
         <v>44613</v>
@@ -45144,7 +45144,7 @@
     </row>
     <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B641" s="10">
         <v>44614</v>
@@ -45170,7 +45170,7 @@
     </row>
     <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B642" s="10">
         <v>44607</v>
@@ -45196,7 +45196,7 @@
     </row>
     <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B643" s="10">
         <v>44608</v>
@@ -45222,7 +45222,7 @@
     </row>
     <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B644" s="10">
         <v>44609</v>
@@ -45248,7 +45248,7 @@
     </row>
     <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B645" s="10">
         <v>44610</v>
@@ -45274,7 +45274,7 @@
     </row>
     <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B646" s="10">
         <v>44611</v>
@@ -45300,7 +45300,7 @@
     </row>
     <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B647" s="10">
         <v>44612</v>
@@ -45326,7 +45326,7 @@
     </row>
     <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B648" s="10">
         <v>44613</v>
@@ -45352,7 +45352,7 @@
     </row>
     <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B649" s="10">
         <v>44614</v>
@@ -45378,7 +45378,7 @@
     </row>
     <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B650" s="10">
         <v>44607</v>
@@ -45404,7 +45404,7 @@
     </row>
     <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B651" s="10">
         <v>44608</v>
@@ -45430,7 +45430,7 @@
     </row>
     <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B652" s="10">
         <v>44609</v>
@@ -45456,7 +45456,7 @@
     </row>
     <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B653" s="10">
         <v>44610</v>
@@ -45482,7 +45482,7 @@
     </row>
     <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B654" s="10">
         <v>44611</v>
@@ -45508,7 +45508,7 @@
     </row>
     <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B655" s="10">
         <v>44612</v>
@@ -45534,7 +45534,7 @@
     </row>
     <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B656" s="10">
         <v>44613</v>
@@ -45560,7 +45560,7 @@
     </row>
     <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B657" s="10">
         <v>44614</v>
@@ -45586,7 +45586,7 @@
     </row>
     <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B658" s="10">
         <v>44607</v>
@@ -45612,7 +45612,7 @@
     </row>
     <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B659" s="10">
         <v>44608</v>
@@ -45638,7 +45638,7 @@
     </row>
     <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B660" s="10">
         <v>44609</v>
@@ -45664,7 +45664,7 @@
     </row>
     <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B661" s="10">
         <v>44610</v>
@@ -45690,7 +45690,7 @@
     </row>
     <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B662" s="10">
         <v>44611</v>
@@ -45716,7 +45716,7 @@
     </row>
     <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B663" s="10">
         <v>44612</v>
@@ -45742,7 +45742,7 @@
     </row>
     <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B664" s="10">
         <v>44613</v>
@@ -45768,7 +45768,7 @@
     </row>
     <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B665" s="10">
         <v>44614</v>
@@ -45794,7 +45794,7 @@
     </row>
     <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B666" s="10">
         <v>44607</v>
@@ -45820,7 +45820,7 @@
     </row>
     <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B667" s="10">
         <v>44608</v>
@@ -45846,7 +45846,7 @@
     </row>
     <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B668" s="10">
         <v>44609</v>
@@ -45872,7 +45872,7 @@
     </row>
     <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B669" s="10">
         <v>44610</v>
@@ -45898,7 +45898,7 @@
     </row>
     <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B670" s="10">
         <v>44611</v>
@@ -45924,7 +45924,7 @@
     </row>
     <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B671" s="10">
         <v>44612</v>
@@ -45950,7 +45950,7 @@
     </row>
     <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B672" s="10">
         <v>44613</v>
@@ -45976,7 +45976,7 @@
     </row>
     <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B673" s="10">
         <v>44614</v>
@@ -46002,7 +46002,7 @@
     </row>
     <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B674" s="10">
         <v>44607</v>
@@ -46028,7 +46028,7 @@
     </row>
     <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B675" s="10">
         <v>44608</v>
@@ -46054,7 +46054,7 @@
     </row>
     <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B676" s="10">
         <v>44609</v>
@@ -46080,7 +46080,7 @@
     </row>
     <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B677" s="10">
         <v>44610</v>
@@ -46106,7 +46106,7 @@
     </row>
     <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B678" s="10">
         <v>44611</v>
@@ -46132,7 +46132,7 @@
     </row>
     <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B679" s="10">
         <v>44612</v>
@@ -46158,7 +46158,7 @@
     </row>
     <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B680" s="10">
         <v>44613</v>
@@ -46184,7 +46184,7 @@
     </row>
     <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B681" s="10">
         <v>44614</v>
@@ -46210,7 +46210,7 @@
     </row>
     <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B682" s="10">
         <v>44607</v>
@@ -46236,7 +46236,7 @@
     </row>
     <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B683" s="10">
         <v>44608</v>
@@ -46262,7 +46262,7 @@
     </row>
     <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B684" s="10">
         <v>44609</v>
@@ -46288,7 +46288,7 @@
     </row>
     <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B685" s="10">
         <v>44610</v>
@@ -46314,7 +46314,7 @@
     </row>
     <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B686" s="10">
         <v>44611</v>
@@ -46340,7 +46340,7 @@
     </row>
     <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B687" s="10">
         <v>44612</v>
@@ -46366,7 +46366,7 @@
     </row>
     <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B688" s="10">
         <v>44613</v>
@@ -46392,7 +46392,7 @@
     </row>
     <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B689" s="10">
         <v>44614</v>
@@ -46418,7 +46418,7 @@
     </row>
     <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B690" s="10">
         <v>44607</v>
@@ -46444,7 +46444,7 @@
     </row>
     <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B691" s="10">
         <v>44608</v>
@@ -46470,7 +46470,7 @@
     </row>
     <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B692" s="10">
         <v>44609</v>
@@ -46496,7 +46496,7 @@
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B693" s="10">
         <v>44610</v>
@@ -46522,7 +46522,7 @@
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B694" s="10">
         <v>44611</v>
@@ -46548,7 +46548,7 @@
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B695" s="10">
         <v>44612</v>
@@ -46574,7 +46574,7 @@
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B696" s="10">
         <v>44613</v>
@@ -46600,7 +46600,7 @@
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B697" s="10">
         <v>44614</v>
@@ -46626,7 +46626,7 @@
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B698" s="10">
         <v>44607</v>
@@ -46652,7 +46652,7 @@
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B699" s="10">
         <v>44608</v>
@@ -46678,7 +46678,7 @@
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B700" s="10">
         <v>44609</v>
@@ -46704,7 +46704,7 @@
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B701" s="10">
         <v>44610</v>
@@ -46730,7 +46730,7 @@
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B702" s="10">
         <v>44611</v>
@@ -46756,7 +46756,7 @@
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B703" s="10">
         <v>44612</v>
@@ -46782,7 +46782,7 @@
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B704" s="10">
         <v>44613</v>
@@ -46808,7 +46808,7 @@
     </row>
     <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B705" s="10">
         <v>44614</v>
@@ -46834,7 +46834,7 @@
     </row>
     <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B706" s="10">
         <v>44607</v>
@@ -46860,7 +46860,7 @@
     </row>
     <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B707" s="10">
         <v>44608</v>
@@ -46886,7 +46886,7 @@
     </row>
     <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B708" s="10">
         <v>44609</v>
@@ -46912,7 +46912,7 @@
     </row>
     <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B709" s="10">
         <v>44610</v>
@@ -46938,7 +46938,7 @@
     </row>
     <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B710" s="10">
         <v>44611</v>
@@ -46964,7 +46964,7 @@
     </row>
     <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B711" s="10">
         <v>44612</v>
@@ -46990,7 +46990,7 @@
     </row>
     <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B712" s="10">
         <v>44613</v>
@@ -47016,7 +47016,7 @@
     </row>
     <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B713" s="10">
         <v>44614</v>
@@ -47042,7 +47042,7 @@
     </row>
     <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B714" s="10">
         <v>44607</v>
@@ -47068,7 +47068,7 @@
     </row>
     <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B715" s="10">
         <v>44608</v>
@@ -47094,7 +47094,7 @@
     </row>
     <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B716" s="10">
         <v>44609</v>
@@ -47120,7 +47120,7 @@
     </row>
     <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B717" s="10">
         <v>44610</v>
@@ -47146,7 +47146,7 @@
     </row>
     <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B718" s="10">
         <v>44611</v>
@@ -47172,7 +47172,7 @@
     </row>
     <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B719" s="10">
         <v>44612</v>
@@ -47198,7 +47198,7 @@
     </row>
     <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B720" s="10">
         <v>44613</v>
@@ -47224,7 +47224,7 @@
     </row>
     <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B721" s="10">
         <v>44614</v>
@@ -47250,7 +47250,7 @@
     </row>
     <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B722" s="10">
         <v>44607</v>
@@ -47276,7 +47276,7 @@
     </row>
     <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B723" s="10">
         <v>44608</v>
@@ -47302,7 +47302,7 @@
     </row>
     <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B724" s="10">
         <v>44609</v>
@@ -47328,7 +47328,7 @@
     </row>
     <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B725" s="10">
         <v>44610</v>
@@ -47354,7 +47354,7 @@
     </row>
     <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B726" s="10">
         <v>44611</v>
@@ -47380,7 +47380,7 @@
     </row>
     <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B727" s="10">
         <v>44612</v>
@@ -47406,7 +47406,7 @@
     </row>
     <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B728" s="10">
         <v>44613</v>
@@ -47432,7 +47432,7 @@
     </row>
     <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B729" s="10">
         <v>44614</v>
@@ -47458,7 +47458,7 @@
     </row>
     <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B730" s="10">
         <v>44607</v>
@@ -47484,7 +47484,7 @@
     </row>
     <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B731" s="10">
         <v>44608</v>
@@ -47510,7 +47510,7 @@
     </row>
     <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B732" s="10">
         <v>44609</v>
@@ -47536,7 +47536,7 @@
     </row>
     <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B733" s="10">
         <v>44610</v>
@@ -47562,7 +47562,7 @@
     </row>
     <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B734" s="10">
         <v>44611</v>
@@ -47588,7 +47588,7 @@
     </row>
     <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B735" s="10">
         <v>44612</v>
@@ -47614,7 +47614,7 @@
     </row>
     <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B736" s="10">
         <v>44613</v>
@@ -47640,7 +47640,7 @@
     </row>
     <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B737" s="10">
         <v>44614</v>
@@ -47666,7 +47666,7 @@
     </row>
     <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B738" s="10">
         <v>44607</v>
@@ -47692,7 +47692,7 @@
     </row>
     <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B739" s="10">
         <v>44608</v>
@@ -47718,7 +47718,7 @@
     </row>
     <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B740" s="10">
         <v>44609</v>
@@ -47744,7 +47744,7 @@
     </row>
     <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B741" s="10">
         <v>44610</v>
@@ -47770,7 +47770,7 @@
     </row>
     <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B742" s="10">
         <v>44611</v>
@@ -47796,7 +47796,7 @@
     </row>
     <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B743" s="10">
         <v>44612</v>
@@ -47822,7 +47822,7 @@
     </row>
     <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B744" s="10">
         <v>44613</v>
@@ -47848,7 +47848,7 @@
     </row>
     <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B745" s="10">
         <v>44614</v>
@@ -47874,7 +47874,7 @@
     </row>
     <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B746" s="10">
         <v>44607</v>
@@ -47900,7 +47900,7 @@
     </row>
     <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B747" s="10">
         <v>44608</v>
@@ -47926,7 +47926,7 @@
     </row>
     <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B748" s="10">
         <v>44609</v>
@@ -47952,7 +47952,7 @@
     </row>
     <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B749" s="10">
         <v>44610</v>
@@ -47978,7 +47978,7 @@
     </row>
     <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B750" s="10">
         <v>44611</v>
@@ -48004,7 +48004,7 @@
     </row>
     <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B751" s="10">
         <v>44612</v>
@@ -48030,7 +48030,7 @@
     </row>
     <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B752" s="10">
         <v>44613</v>
@@ -48056,7 +48056,7 @@
     </row>
     <row r="753" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A753" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B753" s="10">
         <v>44614</v>
@@ -48082,7 +48082,7 @@
     </row>
     <row r="754" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A754" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B754" s="10">
         <v>44607</v>
@@ -48108,7 +48108,7 @@
     </row>
     <row r="755" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A755" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B755" s="10">
         <v>44608</v>
@@ -48134,7 +48134,7 @@
     </row>
     <row r="756" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A756" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B756" s="10">
         <v>44609</v>
@@ -48160,7 +48160,7 @@
     </row>
     <row r="757" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A757" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B757" s="10">
         <v>44610</v>
@@ -48186,7 +48186,7 @@
     </row>
     <row r="758" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A758" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B758" s="10">
         <v>44611</v>
@@ -48212,7 +48212,7 @@
     </row>
     <row r="759" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A759" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B759" s="10">
         <v>44612</v>
@@ -48238,7 +48238,7 @@
     </row>
     <row r="760" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A760" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B760" s="10">
         <v>44613</v>
@@ -48264,7 +48264,7 @@
     </row>
     <row r="761" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A761" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B761" s="10">
         <v>44614</v>
